--- a/trend_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/trend_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.997329910248989</v>
+        <v>0.002670089751011</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.702175786135715</v>
+        <v>0.297824213864285</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0024006868348351</v>
+        <v>0.997599313165165</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0005490886225263</v>
+        <v>0.999450911377474</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.217213291644621</v>
+        <v>0.164131680662653</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H28" t="n">
-        <v>0.318681318681319</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001667047010497</v>
+        <v>-0.009296258589972</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0001786942614276</v>
+        <v>-0.037144486764917</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0005046289755525</v>
+        <v>0.0155444570106314</v>
       </c>
       <c r="N28" t="n">
-        <v>0.555682336832497</v>
+        <v>-0.929625858997201</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.890125328594089</v>
+        <v>0.197141999276676</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0052356020942408</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7329842931937171</v>
+        <v>0.905660377358491</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>510</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.89909756512855</v>
+        <v>-0.0381283871550625</v>
       </c>
       <c r="L29" t="n">
-        <v>-20.0723279834973</v>
+        <v>-0.09012884863218699</v>
       </c>
       <c r="M29" t="n">
-        <v>2.49658236500342</v>
+        <v>0.029992889365279</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.35276422845658</v>
+        <v>-0.392267357562371</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.888596259501389</v>
+        <v>0.06710750042444549</v>
       </c>
       <c r="G30" t="n">
-        <v>0.231638418079096</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.76271186440678</v>
+        <v>0.319018404907975</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0354910332152953</v>
+        <v>0.03</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0001524466463618</v>
+        <v>0.0003727040816326</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0009673238631028</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.0007766284421604</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.429535667325035</v>
+        <v>1.24234693877551</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.208948888009749</v>
+        <v>0.154438996001794</v>
       </c>
       <c r="G31" t="n">
-        <v>0.021978021978022</v>
+        <v>0.0061349693251533</v>
       </c>
       <c r="H31" t="n">
-        <v>0.758241758241758</v>
+        <v>0.742331288343558</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2125</v>
+        <v>430</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0017560096153846</v>
+        <v>5.45284896740483</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0020675542460918</v>
+        <v>-4.470765744297</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0042764106895723</v>
+        <v>14.8028899014124</v>
       </c>
       <c r="N31" t="n">
-        <v>0.826357466063348</v>
+        <v>1.26810441102438</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.961093092250867</v>
+        <v>0.704214542082404</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.253164556962025</v>
       </c>
       <c r="H32" t="n">
-        <v>0.899470899470899</v>
+        <v>0.746835443037975</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>5.69</v>
+        <v>0.0346540684457535</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0689780688394761</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.146704549237724</v>
+        <v>-0.0007356622620683</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0033629418765033</v>
+        <v>2.10906992206248e-06</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.21226834515775</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3358,6 +3358,1094 @@
         </is>
       </c>
       <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.426232795884529</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.246753246753247</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.207792207792208</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7.10879719735306e-05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0002852641435168</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.01554245676472</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.358644767721636</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.149350649350649</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.824675324675325</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.1445</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.000748974709501</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0016605101782871</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.002885893623294</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.518321598270606</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.97054804274003</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5582822085889571</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0117255216693419</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0011872725219251</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0215737094463183</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.15129705379796</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0448644809154059</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0245398773006135</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.785276073619632</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0032551988117001</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0002384087001831</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0064047717563112</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.51404595893032</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.956721491653206</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.619631901840491</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0055509118541033</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0118061101590425</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.841047250621719</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0370803720756751</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.533742331288344</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0009154135338344999</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.001756911807822</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.17360709465973</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.723082425857093</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.950920245398773</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0283397991784573</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.12188900323632</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0737637739620402</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.500703165697126</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.217213291644621</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.318681318681319</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0001667047010497</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0001786942614276</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0005046289755525</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.555682336832497</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>20</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.890125328594089</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0052356020942408</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.7329842931937171</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>510</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-6.89909756512855</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-20.0723279834973</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.49658236500342</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.35276422845658</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.888596259501389</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.231638418079096</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.76271186440678</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0354910332152953</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0001524466463618</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0009673238631028</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.429535667325035</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.208948888009749</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.021978021978022</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.758241758241758</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0017560096153846</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0020675542460918</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0042764106895723</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.826357466063348</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.961093092250867</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.899470899470899</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.0689780688394761</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.146704549237724</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.0033629418765033</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.21226834515775</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/trend_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.890875985210803</v>
+        <v>0.361502085503832</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.66</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K2" t="n">
-        <v>0.100343406593407</v>
+        <v>-0.02285314669346</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0227847693751022</v>
+        <v>-0.159440941142056</v>
       </c>
       <c r="M2" t="n">
-        <v>0.220635171202611</v>
+        <v>0.149081632653061</v>
       </c>
       <c r="N2" t="n">
-        <v>10.0343406593407</v>
+        <v>-2.53923852149555</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.002670089751011</v>
+        <v>0.052596252560021</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.964285714285714</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.03</v>
+        <v>10.19</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.184747095010253</v>
+        <v>-0.121187427801309</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.260362655407006</v>
+        <v>-0.255141990906848</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.08403766579351039</v>
+        <v>-0.0201349528111621</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.84194511475825</v>
+        <v>-1.18927799608743</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.241075611103622</v>
+        <v>0.0139610219715083</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.649122807017544</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0009938875675239</v>
+        <v>0.002496639521193</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0015367543934757</v>
+        <v>0.0006286574870912</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0039873719198475</v>
+        <v>0.0048528364891739</v>
       </c>
       <c r="N4" t="n">
-        <v>3.20608892749673</v>
+        <v>7.56557430664574</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.181647049609493</v>
+        <v>0.111491613320268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="H5" t="n">
-        <v>0.771929824561403</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>510</v>
       </c>
       <c r="K5" t="n">
-        <v>36.8751159554731</v>
+        <v>49.4594724682326</v>
       </c>
       <c r="L5" t="n">
-        <v>-24.7977756388403</v>
+        <v>-16.2305800188023</v>
       </c>
       <c r="M5" t="n">
-        <v>116.097102092002</v>
+        <v>114.123499549067</v>
       </c>
       <c r="N5" t="n">
-        <v>7.23041489323002</v>
+        <v>9.697935778084821</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.218722080544838</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.153846153846154</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="H6" t="n">
-        <v>0.865384615384615</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0363974807525918</v>
+        <v>0.0349640409718699</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0011074378099628</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0019383548917742</v>
+        <v>-0.0042627146595985</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0042729825589235</v>
+        <v>0.0040035835837258</v>
       </c>
       <c r="N6" t="n">
-        <v>3.0426221459955</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.326816601900692</v>
+        <v>0.692679402233724</v>
       </c>
       <c r="G7" t="n">
         <v>0.245614035087719</v>
       </c>
       <c r="H7" t="n">
-        <v>0.263157894736842</v>
+        <v>0.245614035087719</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0007975095678311</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0009945033817599</v>
+        <v>0.0002573293941633</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.968356923629196</v>
+        <v>0.0034637589886132</v>
       </c>
       <c r="G8" t="n">
-        <v>0.157894736842105</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="H8" t="n">
         <v>0.8947368421052631</v>
@@ -1131,19 +1131,19 @@
         <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0.148</v>
+        <v>0.154</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.008689537792077101</v>
+        <v>0.0190045299048085</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0301899987738498</v>
+        <v>0.0070746935678182</v>
       </c>
       <c r="M8" t="n">
-        <v>-9.16457270106285e-05</v>
+        <v>0.0255312179051941</v>
       </c>
       <c r="N8" t="n">
-        <v>-5.87130931897107</v>
+        <v>12.3406038342913</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.297824213864285</v>
+        <v>0.000149294083291</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.754385964912281</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.85</v>
+        <v>7.83</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0066469517743404</v>
+        <v>-0.0873803827751196</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0430895904475685</v>
+        <v>-0.126121769199186</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0192087611008676</v>
+        <v>-0.0543836476098166</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0846745448960568</v>
+        <v>-1.1159691286733</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.819205935222909</v>
+        <v>0.0025161196633805</v>
       </c>
       <c r="G10" t="n">
         <v>0.0175438596491228</v>
       </c>
       <c r="H10" t="n">
-        <v>0.859649122807018</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.232</v>
+        <v>0.25</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0128264891123914</v>
+        <v>0.027701992683866</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0380494830478468</v>
+        <v>0.0096387678687636</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0058315342632815</v>
+        <v>0.0457611149264441</v>
       </c>
       <c r="N10" t="n">
-        <v>-5.52865910016869</v>
+        <v>11.0807970735464</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.362370716458854</v>
+        <v>0.0406122068825396</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.56140350877193</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>0.65</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0424005427317248</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.37451453977907</v>
+        <v>0.001007566048406</v>
       </c>
       <c r="M11" t="n">
-        <v>2.14255542902804</v>
+        <v>0.0759265542895483</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6.52316042026535</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.975964678539247</v>
+        <v>0.272230700620313</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.736842105263158</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.63</v>
+        <v>0.08</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0415616096600487</v>
+        <v>0.0012279010441385</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0654397865338805</v>
+        <v>-0.0029313804173354</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0206320099883213</v>
+        <v>0.0055329376334736</v>
       </c>
       <c r="N12" t="n">
-        <v>-6.59708089842042</v>
+        <v>1.53487630517323</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.437057542505352</v>
+        <v>0.248758888064994</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.736842105263158</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.083</v>
+        <v>5.37</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002335031465388</v>
+        <v>0.157300235478807</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0037270408163265</v>
+        <v>-0.182814052235331</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0047964354383061</v>
+        <v>0.552505686174849</v>
       </c>
       <c r="N13" t="n">
-        <v>0.281329092215431</v>
+        <v>2.9292408841491</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.581807769119272</v>
+        <v>0.831050752047464</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0121951219512195</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982456140350877</v>
+        <v>0.585365853658537</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>5.37</v>
+        <v>0.725</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.08865022888397101</v>
+        <v>0.0209593699839486</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.841185246503355</v>
+        <v>-0.0136987761477238</v>
       </c>
       <c r="M14" t="n">
-        <v>0.530443892880836</v>
+        <v>0.06752610849946319</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.65084225109816</v>
+        <v>2.89094758399291</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.966119622817481</v>
+        <v>0.990023729330881</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5875</v>
+        <v>0.9217391304347829</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9</v>
+        <v>9.74</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0464968962366213</v>
+        <v>0.0966005471956224</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0344064103477525</v>
       </c>
       <c r="M15" t="n">
-        <v>0.101005465073096</v>
+        <v>0.169930213464696</v>
       </c>
       <c r="N15" t="n">
-        <v>5.16632180406903</v>
+        <v>0.991792065663475</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.997599313165165</v>
+        <v>0.0168401747338357</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.904347826086957</v>
+        <v>0.418803418803419</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.44</v>
+        <v>0.032</v>
       </c>
       <c r="K16" t="n">
-        <v>0.122332535885168</v>
+        <v>0.0009118234403281</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0472604326990111</v>
+        <v>0.0001737273225085</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1863936513051</v>
+        <v>0.0015864287374542</v>
       </c>
       <c r="N16" t="n">
-        <v>1.29589550725813</v>
+        <v>2.84944825102542</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0776744574234948</v>
+        <v>0.09958935202813821</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H17" t="n">
-        <v>0.427350427350427</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03</v>
+        <v>482</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0006675296984465</v>
+        <v>16.0139885624579</v>
       </c>
       <c r="L17" t="n">
-        <v>-2.20944876377566e-05</v>
+        <v>-4.88896346235844</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001329390354868</v>
+        <v>38.0755319681636</v>
       </c>
       <c r="N17" t="n">
-        <v>2.22509899482181</v>
+        <v>3.32240426607011</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0975358459338241</v>
+        <v>1.89743583401828e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0086206896551724</v>
+        <v>0.309090909090909</v>
       </c>
       <c r="H18" t="n">
-        <v>0.741379310344828</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>455</v>
+        <v>0.0287505580073957</v>
       </c>
       <c r="K18" t="n">
-        <v>10.0343406593407</v>
+        <v>0.0030904256900295</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.54447014142443</v>
+        <v>0.0017066542139017</v>
       </c>
       <c r="M18" t="n">
-        <v>32.9603623879027</v>
+        <v>0.0041628441517209</v>
       </c>
       <c r="N18" t="n">
-        <v>2.20534959545949</v>
+        <v>10.74909811919</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.30371916699386e-06</v>
+        <v>0.915654021687937</v>
       </c>
       <c r="G19" t="n">
-        <v>0.339285714285714</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="H19" t="n">
-        <v>0.660714285714286</v>
+        <v>0.205128205128205</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0286043184998235</v>
+        <v>0.007</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0030523991334186</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0013149958243977</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0041739404778804</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>10.6711129420456</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.822651379190955</v>
+        <v>0.0267890658649323</v>
       </c>
       <c r="G20" t="n">
-        <v>0.188034188034188</v>
+        <v>0.162393162393162</v>
       </c>
       <c r="H20" t="n">
-        <v>0.239316239316239</v>
+        <v>0.829059829059829</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007</v>
+        <v>0.175</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0040388221153846</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002804022870922</v>
+        <v>0.0007830625158236</v>
       </c>
       <c r="M20" t="n">
-        <v>0.000280562226606</v>
+        <v>0.0076591925755611</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.30789835164835</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.183305454038086</v>
+        <v>0.998822522874153</v>
       </c>
       <c r="G21" t="n">
-        <v>0.188034188034188</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.82051282051282</v>
+        <v>0.617391304347826</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.148</v>
+        <v>7.73</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0014985640043763</v>
+        <v>0.0282495450409463</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.0122271746490404</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0046745730590706</v>
+        <v>0.045380639700682</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01254324620025</v>
+        <v>0.365453364048464</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>West_2</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999450911377474</v>
+        <v>0.0001329220354599</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0341880341880342</v>
       </c>
       <c r="H22" t="n">
-        <v>0.606837606837607</v>
+        <v>0.829059829059829</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.76</v>
+        <v>0.24</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0262141148325359</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0147614880672275</v>
+        <v>0.0055977011494252</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0417416004715186</v>
+        <v>0.0166338783636308</v>
       </c>
       <c r="N22" t="n">
-        <v>0.337810758151236</v>
+        <v>4.18097527472527</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>West_2</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0031016441525353</v>
+        <v>0.425569776310186</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0341880341880342</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.82051282051282</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.23</v>
+        <v>0.66</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0066681880419899</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0029806627898855</v>
+        <v>-0.0059786973057338</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0107268387772827</v>
+        <v>0.0119141267253926</v>
       </c>
       <c r="N23" t="n">
-        <v>2.89921219216955</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0002433934923946</v>
+        <v>0.315372298909</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008547008547008499</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.358974358974359</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>0.081</v>
       </c>
       <c r="K24" t="n">
-        <v>0.656138665622526</v>
+        <v>0.0004421912832929</v>
       </c>
       <c r="L24" t="n">
-        <v>0.308802706182007</v>
+        <v>-0.0010437289735933</v>
       </c>
       <c r="M24" t="n">
-        <v>1.14678178963893</v>
+        <v>0.0017627895752895</v>
       </c>
       <c r="N24" t="n">
-        <v>9.37340950889323</v>
+        <v>0.5459151645592329</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.765261300884009</v>
+        <v>0.260697017242746</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.692307692307692</v>
+        <v>0.974358974358974</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.65</v>
+        <v>5.53</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0039983579638752</v>
+        <v>0.0679720853858785</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.011724325032066</v>
+        <v>-0.0885866741163536</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0060314803870394</v>
+        <v>0.225163622249599</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.61513199444234</v>
+        <v>1.22915163446435</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0306761685443684</v>
+        <v>0.026200885227733</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0245901639344262</v>
       </c>
       <c r="H26" t="n">
-        <v>0.615384615384615</v>
+        <v>0.491803278688525</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.078</v>
+        <v>0.9685</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0016283571753197</v>
+        <v>-0.0242610428429093</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000161890110384</v>
+        <v>-0.0501557004605197</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0030510442733165</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2.0876374042561</v>
+        <v>-2.50501216756937</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>0.579666981545377</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.965811965811966</v>
+        <v>0.894117647058824</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>5.66</v>
+        <v>9.835000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0014295499021526</v>
+        <v>0.007996715927750499</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.165875665449995</v>
+        <v>-0.0522938004503726</v>
       </c>
       <c r="M27" t="n">
-        <v>0.170521546774876</v>
+        <v>0.0532291646338323</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0252570654090567</v>
+        <v>0.0813087537137834</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.164131680662653</v>
+        <v>0.0187710367076848</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.491525423728814</v>
+        <v>0.298850574712644</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.009296258589972</v>
+        <v>0.0004357291977333</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.037144486764917</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0155444570106314</v>
+        <v>0.0007846469072976</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.929625858997201</v>
+        <v>1.45243065911124</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.197141999276676</v>
+        <v>0.09724114333837799</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="H29" t="n">
-        <v>0.905660377358491</v>
+        <v>0.757225433526012</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>9.720000000000001</v>
+        <v>434</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0381283871550625</v>
+        <v>6.00185172059397</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.09012884863218699</v>
+        <v>-1.92973199447245</v>
       </c>
       <c r="M29" t="n">
-        <v>0.029992889365279</v>
+        <v>16.0250709814467</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.392267357562371</v>
+        <v>1.382915142994</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.06710750042444549</v>
+        <v>0.7287193071920069</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.239520958083832</v>
       </c>
       <c r="H30" t="n">
-        <v>0.319018404907975</v>
+        <v>0.760479041916168</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03</v>
+        <v>0.0342498589701284</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0003727040816326</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-0.0007360358836426</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0007766284421604</v>
+        <v>2.57470075014399e-06</v>
       </c>
       <c r="N30" t="n">
-        <v>1.24234693877551</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.154438996001794</v>
+        <v>0.636473318137785</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0061349693251533</v>
+        <v>0.240963855421687</v>
       </c>
       <c r="H31" t="n">
-        <v>0.742331288343558</v>
+        <v>0.192771084337349</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>430</v>
+        <v>0.0065</v>
       </c>
       <c r="K31" t="n">
-        <v>5.45284896740483</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.470765744297</v>
+        <v>-0.0001177973939409</v>
       </c>
       <c r="M31" t="n">
-        <v>14.8028899014124</v>
+        <v>0.0001664864954832</v>
       </c>
       <c r="N31" t="n">
-        <v>1.26810441102438</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.704214542082404</v>
+        <v>0.0580992521159505</v>
       </c>
       <c r="G32" t="n">
-        <v>0.253164556962025</v>
+        <v>0.13855421686747</v>
       </c>
       <c r="H32" t="n">
-        <v>0.746835443037975</v>
+        <v>0.819277108433735</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0346540684457535</v>
+        <v>0.1584</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0020013698630137</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0007356622620683</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2.10906992206248e-06</v>
+        <v>0.0048441115322126</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.26349107513491</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.426232795884529</v>
+        <v>0.778024463361128</v>
       </c>
       <c r="G33" t="n">
-        <v>0.246753246753247</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.207792207792208</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007</v>
+        <v>7.74</v>
       </c>
       <c r="K33" t="n">
-        <v>7.10879719735306e-05</v>
+        <v>0.0043657553641546</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0053131558629584</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0002852641435168</v>
+        <v>0.0139752125627233</v>
       </c>
       <c r="N33" t="n">
-        <v>1.01554245676472</v>
+        <v>0.0564051080640137</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>West_2</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.358644767721636</v>
+        <v>0.0043483284831644</v>
       </c>
       <c r="G34" t="n">
-        <v>0.149350649350649</v>
+        <v>0.0229885057471264</v>
       </c>
       <c r="H34" t="n">
-        <v>0.824675324675325</v>
+        <v>0.8218390804597701</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1445</v>
+        <v>0.23</v>
       </c>
       <c r="K34" t="n">
-        <v>0.000748974709501</v>
+        <v>0.0043113650121065</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0016605101782871</v>
+        <v>0.001649171772971</v>
       </c>
       <c r="M34" t="n">
-        <v>0.002885893623294</v>
+        <v>0.008164129595476501</v>
       </c>
       <c r="N34" t="n">
-        <v>0.518321598270606</v>
+        <v>1.87450652700284</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.97054804274003</v>
+        <v>0.710576399866213</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5582822085889571</v>
+        <v>0.614942528735632</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0117255216693419</v>
+        <v>-0.0018149068322981</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0011872725219251</v>
+        <v>-0.006996705157749</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0215737094463183</v>
+        <v>0.0035458226230105</v>
       </c>
       <c r="N35" t="n">
-        <v>0.15129705379796</v>
+        <v>-0.263029975695381</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>West_2</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0448644809154059</v>
+        <v>0.0218744657588549</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0245398773006135</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.785276073619632</v>
+        <v>0.511494252873563</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.215</v>
+        <v>0.078</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0032551988117001</v>
+        <v>0.0008696428571428</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0002384087001831</v>
+        <v>0.0001596239457128</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0064047717563112</v>
+        <v>0.0016104249386594</v>
       </c>
       <c r="N36" t="n">
-        <v>1.51404595893032</v>
+        <v>1.11492673992674</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.956721491653206</v>
+        <v>0.754483575541157</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.619631901840491</v>
+        <v>0.954022988505747</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.66</v>
+        <v>5.65</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0055509118541033</v>
+        <v>-0.0357273657870792</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0118061101590425</v>
+        <v>-0.124359015070673</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.0626072956748618</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.841047250621719</v>
+        <v>-0.632342757293437</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.0370803720756751</v>
+        <v>0.331477805550359</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0222222222222222</v>
       </c>
       <c r="H38" t="n">
-        <v>0.533742331288344</v>
+        <v>0.503703703703704</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>0.078</v>
+        <v>0.9</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0009154135338344999</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.0216946999963705</v>
       </c>
       <c r="M38" t="n">
-        <v>0.001756911807822</v>
+        <v>0.0162045252883762</v>
       </c>
       <c r="N38" t="n">
-        <v>1.17360709465973</v>
+        <v>0</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3913,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.723082425857093</v>
+        <v>0.0569005363255158</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.950920245398773</v>
+        <v>0.298969072164948</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>5.66</v>
+        <v>0.031</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0283397991784573</v>
+        <v>0.0002841085874299</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.12188900323632</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0737637739620402</v>
+        <v>0.0005815037413656</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.500703165697126</v>
+        <v>0.916479314290302</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4004,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.217213291644621</v>
+        <v>0.834022136526286</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0098522167487684</v>
       </c>
       <c r="H40" t="n">
-        <v>0.318681318681319</v>
+        <v>0.74384236453202</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03</v>
+        <v>510</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0001667047010497</v>
+        <v>-4.59811165845649</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0001786942614276</v>
+        <v>-16.6255342620805</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0005046289755525</v>
+        <v>3.57455634553636</v>
       </c>
       <c r="N40" t="n">
-        <v>0.555682336832497</v>
+        <v>-0.9015905212659781</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.890125328594089</v>
+        <v>0.8354104311607909</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0052356020942408</v>
+        <v>0.219251336898396</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7329842931937171</v>
+        <v>0.775401069518717</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>510</v>
+        <v>0.035393553323124</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.89909756512855</v>
+        <v>-6.32187384247606e-05</v>
       </c>
       <c r="L41" t="n">
-        <v>-20.0723279834973</v>
+        <v>-0.0008181647320959999</v>
       </c>
       <c r="M41" t="n">
-        <v>2.49658236500342</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.35276422845658</v>
+        <v>-0.178616534620324</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4186,14 +4186,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4201,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.888596259501389</v>
+        <v>0.174812368041253</v>
       </c>
       <c r="G42" t="n">
-        <v>0.231638418079096</v>
+        <v>0.12972972972973</v>
       </c>
       <c r="H42" t="n">
-        <v>0.76271186440678</v>
+        <v>0.794594594594595</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0354910332152953</v>
+        <v>0.153</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0001524466463618</v>
+        <v>0.001086457925636</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0009673238631028</v>
+        <v>-0.0003357325513562</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.0036376514576307</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.429535667325035</v>
+        <v>0.71010321936994</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.208948888009749</v>
+        <v>0.0373839181887937</v>
       </c>
       <c r="G43" t="n">
-        <v>0.021978021978022</v>
+        <v>0.0206185567010309</v>
       </c>
       <c r="H43" t="n">
-        <v>0.758241758241758</v>
+        <v>0.7989690721649489</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2125</v>
+        <v>0.2265</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0017560096153846</v>
+        <v>0.0029775815217391</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0020675542460918</v>
+        <v>0.0001964859238174</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0042764106895723</v>
+        <v>0.0057294486259134</v>
       </c>
       <c r="N43" t="n">
-        <v>0.826357466063348</v>
+        <v>1.31460552836165</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.961093092250867</v>
+        <v>0.9654613766279601</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.899470899470899</v>
+        <v>0.9054726368159201</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.69</v>
+        <v>5.68</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0689780688394761</v>
+        <v>-0.07002889444022289</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.146704549237724</v>
+        <v>-0.143467305110976</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0033629418765033</v>
+        <v>-0.0071640672030362</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.21226834515775</v>
+        <v>-1.23290307113068</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>

--- a/trend_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/trend_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="62">
   <si>
     <t>site name</t>
   </si>
@@ -127,55 +127,55 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -557,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,37 +651,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.361502085503832</v>
+        <v>0.048293534288293</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.727272727272727</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K2">
-        <v>-0.02285314669346</v>
+        <v>-0.162556318681319</v>
       </c>
       <c r="L2">
-        <v>-0.159440941142056</v>
+        <v>-0.437148253402602</v>
       </c>
       <c r="M2">
-        <v>0.149081632653061</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.53923852149555</v>
+        <v>-23.2223312401884</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q2">
         <v>1762563.938</v>
@@ -722,37 +722,37 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.052596252560021</v>
+        <v>0.905168800117927</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.982142857142857</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.19</v>
+        <v>10.25</v>
       </c>
       <c r="K3">
-        <v>-0.121187427801309</v>
+        <v>0.206472162705716</v>
       </c>
       <c r="L3">
-        <v>-0.255141990906848</v>
+        <v>-0.0399990292008824</v>
       </c>
       <c r="M3">
-        <v>-0.0201349528111621</v>
+        <v>0.363204677584666</v>
       </c>
       <c r="N3">
-        <v>-1.18927799608743</v>
+        <v>2.01436256298259</v>
       </c>
       <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>42</v>
       </c>
       <c r="Q3">
         <v>1762563.938</v>
@@ -793,37 +793,37 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0139610219715083</v>
+        <v>0.0019879603941143</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.631578947368421</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="K4">
-        <v>0.002496639521193</v>
+        <v>0.0035176565008025</v>
       </c>
       <c r="L4">
-        <v>0.0006286574870912</v>
+        <v>0.0017333231905447</v>
       </c>
       <c r="M4">
-        <v>0.0048528364891739</v>
+        <v>0.005432136470837</v>
       </c>
       <c r="N4">
-        <v>7.56557430664574</v>
+        <v>10.3460485317723</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q4">
         <v>1762563.938</v>
@@ -864,37 +864,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.111491613320268</v>
+        <v>0.478040513175642</v>
       </c>
       <c r="G5">
-        <v>0.0350877192982456</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H5">
-        <v>0.929824561403509</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>510</v>
       </c>
       <c r="K5">
-        <v>49.4594724682326</v>
+        <v>3.84630612244899</v>
       </c>
       <c r="L5">
-        <v>-16.2305800188023</v>
+        <v>-93.5753755367697</v>
       </c>
       <c r="M5">
-        <v>114.123499549067</v>
+        <v>62.5599702041759</v>
       </c>
       <c r="N5">
-        <v>9.697935778084821</v>
+        <v>0.754177671068428</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>1762563.938</v>
@@ -929,43 +929,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>0.692853155126852</v>
+      </c>
+      <c r="G6">
+        <v>0.09803921568627449</v>
+      </c>
+      <c r="H6">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.134615384615385</v>
-      </c>
-      <c r="H6">
-        <v>0.903846153846154</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6">
-        <v>0.0349640409718699</v>
+        <v>0.030691668292494</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.0010408324094621</v>
       </c>
       <c r="L6">
-        <v>-0.0042627146595985</v>
+        <v>-0.0041766257302255</v>
       </c>
       <c r="M6">
-        <v>0.0040035835837258</v>
+        <v>0.0024771441761324</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-3.39125393752775</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1762563.938</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>0.692679402233724</v>
+        <v>0.9935641919417521</v>
       </c>
       <c r="G7">
-        <v>0.245614035087719</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="H7">
-        <v>0.245614035087719</v>
+        <v>0.228070175438596</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1021,22 +1021,22 @@
         <v>0.006</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0010488419913419</v>
       </c>
       <c r="L7">
-        <v>-0.0007975095678311</v>
+        <v>-0.0016831797235023</v>
       </c>
       <c r="M7">
-        <v>0.0002573293941633</v>
+        <v>-0.0002840417387384</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-17.4806998556999</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1762563.938</v>
@@ -1077,37 +1077,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0034637589886132</v>
+        <v>0.0090460490340024</v>
       </c>
       <c r="G8">
-        <v>0.140350877192982</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="H8">
-        <v>0.8947368421052631</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>0.154</v>
+        <v>0.186</v>
       </c>
       <c r="K8">
-        <v>0.0190045299048085</v>
+        <v>0.0188980082417582</v>
       </c>
       <c r="L8">
-        <v>0.0070746935678182</v>
+        <v>0.0061101863418003</v>
       </c>
       <c r="M8">
-        <v>0.0255312179051941</v>
+        <v>0.0255427777082207</v>
       </c>
       <c r="N8">
-        <v>12.3406038342913</v>
+        <v>10.1602194848163</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>1762563.938</v>
@@ -1148,37 +1148,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.000149294083291</v>
+        <v>0.0005381560594199</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.818181818181818</v>
+        <v>0.7037037037037041</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.83</v>
+        <v>7.695</v>
       </c>
       <c r="K9">
-        <v>-0.0873803827751196</v>
+        <v>-0.0807926267281107</v>
       </c>
       <c r="L9">
-        <v>-0.126121769199186</v>
+        <v>-0.119796382234138</v>
       </c>
       <c r="M9">
-        <v>-0.0543836476098166</v>
+        <v>-0.0449016102205689</v>
       </c>
       <c r="N9">
-        <v>-1.1159691286733</v>
+        <v>-1.04993666963107</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1762563.938</v>
@@ -1216,37 +1216,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0025161196633805</v>
+        <v>0.0116711010064454</v>
       </c>
       <c r="G10">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.912280701754386</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.25</v>
+        <v>0.258</v>
       </c>
       <c r="K10">
-        <v>0.027701992683866</v>
+        <v>0.0248300743374273</v>
       </c>
       <c r="L10">
-        <v>0.0096387678687636</v>
+        <v>0.0090680327018664</v>
       </c>
       <c r="M10">
-        <v>0.0457611149264441</v>
+        <v>0.0406430940945652</v>
       </c>
       <c r="N10">
-        <v>11.0807970735464</v>
+        <v>9.624059820708251</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q10">
         <v>1762563.938</v>
@@ -1287,37 +1287,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0406122068825396</v>
+        <v>0.0987396075580713</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.789473684210526</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="K11">
-        <v>0.0424005427317248</v>
+        <v>0.0199731161695447</v>
       </c>
       <c r="L11">
-        <v>0.001007566048406</v>
+        <v>-0.0032181424540808</v>
       </c>
       <c r="M11">
-        <v>0.0759265542895483</v>
+        <v>0.0501717032967033</v>
       </c>
       <c r="N11">
-        <v>6.52316042026535</v>
+        <v>3.02622972265829</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1762563.938</v>
@@ -1358,7 +1358,7 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.272230700620313</v>
+        <v>0.893740017313852</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08</v>
+        <v>0.078</v>
       </c>
       <c r="K12">
-        <v>0.0012279010441385</v>
+        <v>-0.0025641591264618</v>
       </c>
       <c r="L12">
-        <v>-0.0029313804173354</v>
+        <v>-0.0055805438779402</v>
       </c>
       <c r="M12">
-        <v>0.0055329376334736</v>
+        <v>0.0007174953407649</v>
       </c>
       <c r="N12">
-        <v>1.53487630517323</v>
+        <v>-3.28738349546394</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>1762563.938</v>
@@ -1429,37 +1429,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.248758888064994</v>
+        <v>0.979084702717378</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.982456140350877</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.37</v>
+        <v>4.97</v>
       </c>
       <c r="K13">
-        <v>0.157300235478807</v>
+        <v>-0.518040840738209</v>
       </c>
       <c r="L13">
-        <v>-0.182814052235331</v>
+        <v>-1.04638510438484</v>
       </c>
       <c r="M13">
-        <v>0.552505686174849</v>
+        <v>-0.199031646933404</v>
       </c>
       <c r="N13">
-        <v>2.9292408841491</v>
+        <v>-10.4233569565032</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1762563.938</v>
@@ -1500,37 +1500,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.831050752047464</v>
+        <v>0.831272924789425</v>
       </c>
       <c r="G14">
-        <v>0.0121951219512195</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.585365853658537</v>
+        <v>0.592592592592593</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.725</v>
+        <v>0.61</v>
       </c>
       <c r="K14">
-        <v>0.0209593699839486</v>
+        <v>0.0199493839764264</v>
       </c>
       <c r="L14">
-        <v>-0.0136987761477238</v>
+        <v>-0.0122039870734657</v>
       </c>
       <c r="M14">
-        <v>0.06752610849946319</v>
+        <v>0.0755849588948057</v>
       </c>
       <c r="N14">
-        <v>2.89094758399291</v>
+        <v>3.2703908158076</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q14">
         <v>1762563.938</v>
@@ -1571,34 +1571,34 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.990023729330881</v>
+        <v>0.999864443848744</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.9217391304347829</v>
+        <v>0.9304347826086961</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.74</v>
+        <v>9.92</v>
       </c>
       <c r="K15">
-        <v>0.0966005471956224</v>
+        <v>0.159563139931741</v>
       </c>
       <c r="L15">
-        <v>0.0344064103477525</v>
+        <v>0.0792540274681358</v>
       </c>
       <c r="M15">
-        <v>0.169930213464696</v>
+        <v>0.234656320497044</v>
       </c>
       <c r="N15">
-        <v>0.991792065663475</v>
+        <v>1.60849939447319</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P15" t="s">
         <v>48</v>
@@ -1642,37 +1642,37 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.0168401747338357</v>
+        <v>0.0016679502219931</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.418803418803419</v>
+        <v>0.401709401709402</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="K16">
-        <v>0.0009118234403281</v>
+        <v>0.001117542360981</v>
       </c>
       <c r="L16">
-        <v>0.0001737273225085</v>
+        <v>0.0004809212168785</v>
       </c>
       <c r="M16">
-        <v>0.0015864287374542</v>
+        <v>0.0018070500927643</v>
       </c>
       <c r="N16">
-        <v>2.84944825102542</v>
+        <v>3.386492002973</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q16">
         <v>1762563.938</v>
@@ -1707,43 +1707,43 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.09958935202813821</v>
+        <v>0.0515197323533534</v>
       </c>
       <c r="G17">
-        <v>0.0172413793103448</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H17">
-        <v>0.758620689655172</v>
+        <v>0.786324786324786</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="K17">
-        <v>16.0139885624579</v>
+        <v>11.1954022988506</v>
       </c>
       <c r="L17">
-        <v>-4.88896346235844</v>
+        <v>-0.217732746071972</v>
       </c>
       <c r="M17">
-        <v>38.0755319681636</v>
+        <v>32.0254496852937</v>
       </c>
       <c r="N17">
-        <v>3.32240426607011</v>
+        <v>2.38200048911714</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>1762563.938</v>
@@ -1781,40 +1781,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>1.89743583401828E-06</v>
+        <v>0.0008891926234132</v>
       </c>
       <c r="G18">
-        <v>0.309090909090909</v>
+        <v>0.247706422018349</v>
       </c>
       <c r="H18">
-        <v>0.690909090909091</v>
+        <v>0.752293577981651</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>0.0287505580073957</v>
+        <v>0.0301233040648552</v>
       </c>
       <c r="K18">
-        <v>0.0030904256900295</v>
+        <v>0.0023013217375416</v>
       </c>
       <c r="L18">
-        <v>0.0017066542139017</v>
+        <v>0.0012967240019942</v>
       </c>
       <c r="M18">
-        <v>0.0041628441517209</v>
+        <v>0.00334195571999</v>
       </c>
       <c r="N18">
-        <v>10.74909811919</v>
+        <v>7.63967236989316</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q18">
         <v>1762563.938</v>
@@ -1852,40 +1852,40 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0.915654021687937</v>
+        <v>0.999930588720007</v>
       </c>
       <c r="G19">
-        <v>0.205128205128205</v>
+        <v>0.239316239316239</v>
       </c>
       <c r="H19">
-        <v>0.205128205128205</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="I19">
         <v>3</v>
       </c>
       <c r="J19">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="L19">
-        <v>-0.0003334094020994</v>
+        <v>-0.000748974709501</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-0.0002619337790306</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-8.28231292517007</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q19">
         <v>1762563.938</v>
@@ -1923,16 +1923,16 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>0.0267890658649323</v>
+        <v>0.128390733303472</v>
       </c>
       <c r="G20">
-        <v>0.162393162393162</v>
+        <v>0.128205128205128</v>
       </c>
       <c r="H20">
-        <v>0.829059829059829</v>
+        <v>0.854700854700855</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1941,22 +1941,22 @@
         <v>0.175</v>
       </c>
       <c r="K20">
-        <v>0.0040388221153846</v>
+        <v>0.0022577266483516</v>
       </c>
       <c r="L20">
-        <v>0.0007830625158236</v>
+        <v>-0.0002204501080449</v>
       </c>
       <c r="M20">
-        <v>0.0076591925755611</v>
+        <v>0.0060616201809445</v>
       </c>
       <c r="N20">
-        <v>2.30789835164835</v>
+        <v>1.2901295133438</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>1762563.938</v>
@@ -1997,37 +1997,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.998822522874153</v>
+        <v>0.954454518033188</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.617391304347826</v>
+        <v>0.570175438596491</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="K21">
-        <v>0.0282495450409463</v>
+        <v>0.0162667009249743</v>
       </c>
       <c r="L21">
-        <v>0.0122271746490404</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.045380639700682</v>
+        <v>0.0311548244309357</v>
       </c>
       <c r="N21">
-        <v>0.365453364048464</v>
+        <v>0.210164094637911</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1762563.938</v>
@@ -2065,7 +2065,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0001329220354599</v>
+        <v>0.0059220764114306</v>
       </c>
       <c r="G22">
         <v>0.0341880341880342</v>
@@ -2077,25 +2077,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.24</v>
+        <v>0.248</v>
       </c>
       <c r="K22">
-        <v>0.0100343406593407</v>
+        <v>0.007650956284153</v>
       </c>
       <c r="L22">
-        <v>0.0055977011494252</v>
+        <v>0.0018261313333139</v>
       </c>
       <c r="M22">
-        <v>0.0166338783636308</v>
+        <v>0.0118775225583095</v>
       </c>
       <c r="N22">
-        <v>4.18097527472527</v>
+        <v>3.08506301780363</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q22">
         <v>1762563.938</v>
@@ -2133,40 +2133,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.425569776310186</v>
+        <v>0.9100306300298709</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.666666666666667</v>
+        <v>0.641025641025641</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-0.0050011410314924</v>
       </c>
       <c r="L23">
-        <v>-0.0059786973057338</v>
+        <v>-0.0150114043177689</v>
       </c>
       <c r="M23">
-        <v>0.0119141267253926</v>
+        <v>0.0002071808457612</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-0.714448718784636</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1762563.938</v>
@@ -2207,37 +2207,37 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.315372298909</v>
+        <v>0.643408875859346</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.615384615384615</v>
+        <v>0.581196581196581</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
       <c r="K24">
-        <v>0.0004421912832929</v>
+        <v>-0.0002355703715997</v>
       </c>
       <c r="L24">
-        <v>-0.0010437289735933</v>
+        <v>-0.0015725453380386</v>
       </c>
       <c r="M24">
-        <v>0.0017627895752895</v>
+        <v>0.0009574049803407</v>
       </c>
       <c r="N24">
-        <v>0.5459151645592329</v>
+        <v>-0.298190343797194</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q24">
         <v>1762563.938</v>
@@ -2278,37 +2278,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.260697017242746</v>
+        <v>0.981415075410655</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.974358974358974</v>
+        <v>0.982905982905983</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.53</v>
+        <v>5.41</v>
       </c>
       <c r="K25">
-        <v>0.0679720853858785</v>
+        <v>-0.19723000683527</v>
       </c>
       <c r="L25">
-        <v>-0.0885866741163536</v>
+        <v>-0.370666797502472</v>
       </c>
       <c r="M25">
-        <v>0.225163622249599</v>
+        <v>-0.0346919615845918</v>
       </c>
       <c r="N25">
-        <v>1.22915163446435</v>
+        <v>-3.6456563185817</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1762563.938</v>
@@ -2349,37 +2349,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.026200885227733</v>
+        <v>0.041051889271304</v>
       </c>
       <c r="G26">
-        <v>0.0245901639344262</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H26">
-        <v>0.491803278688525</v>
+        <v>0.5</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.9685</v>
+        <v>0.9</v>
       </c>
       <c r="K26">
-        <v>-0.0242610428429093</v>
+        <v>-0.0209763101220388</v>
       </c>
       <c r="L26">
-        <v>-0.0501557004605197</v>
+        <v>-0.0461568855491303</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>-2.50501216756937</v>
+        <v>-2.33070112467097</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q26">
         <v>1762563.938</v>
@@ -2420,37 +2420,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.579666981545377</v>
+        <v>0.985717679700379</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.894117647058824</v>
+        <v>0.8901734104046241</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.835000000000001</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K27">
-        <v>0.007996715927750499</v>
+        <v>0.0602060439560427</v>
       </c>
       <c r="L27">
-        <v>-0.0522938004503726</v>
+        <v>0.0184645799597165</v>
       </c>
       <c r="M27">
-        <v>0.0532291646338323</v>
+        <v>0.106208078879525</v>
       </c>
       <c r="N27">
-        <v>0.0813087537137834</v>
+        <v>0.609372914534845</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1762563.938</v>
@@ -2485,43 +2485,43 @@
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.0187710367076848</v>
+        <v>0.0015538195678655</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.298850574712644</v>
+        <v>0.295454545454545</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="K28">
-        <v>0.0004357291977333</v>
+        <v>0.0005420008554498</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="M28">
-        <v>0.0007846469072976</v>
+        <v>0.0009119941430067</v>
       </c>
       <c r="N28">
-        <v>1.45243065911124</v>
+        <v>1.74838985628996</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q28">
         <v>1762563.938</v>
@@ -2562,34 +2562,34 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.09724114333837799</v>
+        <v>0.22438630119004</v>
       </c>
       <c r="G29">
-        <v>0.0115606936416185</v>
+        <v>0.0114285714285714</v>
       </c>
       <c r="H29">
-        <v>0.757225433526012</v>
+        <v>0.777142857142857</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="K29">
-        <v>6.00185172059397</v>
+        <v>4.33432222729347</v>
       </c>
       <c r="L29">
-        <v>-1.92973199447245</v>
+        <v>-5.55117541528449</v>
       </c>
       <c r="M29">
-        <v>16.0250709814467</v>
+        <v>10.9543680482047</v>
       </c>
       <c r="N29">
-        <v>1.382915142994</v>
+        <v>0.942243962455103</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P29" t="s">
         <v>49</v>
@@ -2630,40 +2630,40 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>0.7287193071920069</v>
+        <v>0.715869033349953</v>
       </c>
       <c r="G30">
-        <v>0.239520958083832</v>
+        <v>0.244047619047619</v>
       </c>
       <c r="H30">
-        <v>0.760479041916168</v>
+        <v>0.755952380952381</v>
       </c>
       <c r="I30">
         <v>3</v>
       </c>
       <c r="J30">
-        <v>0.0342498589701284</v>
+        <v>0.0320220561939228</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.0007360358836426</v>
+        <v>-0.0006823550235110001</v>
       </c>
       <c r="M30">
-        <v>2.57470075014399E-06</v>
+        <v>2.54784618114769E-06</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q30">
         <v>1762563.938</v>
@@ -2701,40 +2701,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>0.636473318137785</v>
+        <v>0.968820613439213</v>
       </c>
       <c r="G31">
-        <v>0.240963855421687</v>
+        <v>0.244318181818182</v>
       </c>
       <c r="H31">
-        <v>0.192771084337349</v>
+        <v>0.176136363636364</v>
       </c>
       <c r="I31">
         <v>4</v>
       </c>
       <c r="J31">
-        <v>0.0065</v>
+        <v>0.006</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-9.99316080276523E-05</v>
       </c>
       <c r="L31">
-        <v>-0.0001177973939409</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M31">
-        <v>0.0001664864954832</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>-1.66552680046087</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P31" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1762563.938</v>
@@ -2775,13 +2775,13 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.0580992521159505</v>
+        <v>0.07265205818101771</v>
       </c>
       <c r="G32">
-        <v>0.13855421686747</v>
+        <v>0.130681818181818</v>
       </c>
       <c r="H32">
-        <v>0.819277108433735</v>
+        <v>0.829545454545455</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2790,22 +2790,22 @@
         <v>0.1584</v>
       </c>
       <c r="K32">
-        <v>0.0020013698630137</v>
+        <v>0.0016133274856573</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0048441115322126</v>
+        <v>0.0039062843723397</v>
       </c>
       <c r="N32">
-        <v>1.26349107513491</v>
+        <v>1.01851482680391</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q32">
         <v>1762563.938</v>
@@ -2846,34 +2846,34 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.778024463361128</v>
+        <v>0.314008076639056</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.546511627906977</v>
+        <v>0.497109826589595</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.74</v>
+        <v>7.72</v>
       </c>
       <c r="K33">
-        <v>0.0043657553641546</v>
+        <v>-0.002308786346397</v>
       </c>
       <c r="L33">
-        <v>-0.0053131558629584</v>
+        <v>-0.0103895385587863</v>
       </c>
       <c r="M33">
-        <v>0.0139752125627233</v>
+        <v>0.0057413619691527</v>
       </c>
       <c r="N33">
-        <v>0.0564051080640137</v>
+        <v>-0.0299065588911531</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P33" t="s">
         <v>52</v>
@@ -2914,37 +2914,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.0043483284831644</v>
+        <v>0.0124173219173147</v>
       </c>
       <c r="G34">
-        <v>0.0229885057471264</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H34">
-        <v>0.8218390804597701</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.23</v>
+        <v>0.2315</v>
       </c>
       <c r="K34">
-        <v>0.0043113650121065</v>
+        <v>0.0040027397260274</v>
       </c>
       <c r="L34">
-        <v>0.001649171772971</v>
+        <v>0.0013301254753398</v>
       </c>
       <c r="M34">
-        <v>0.008164129595476501</v>
+        <v>0.0075671955817907</v>
       </c>
       <c r="N34">
-        <v>1.87450652700284</v>
+        <v>1.72904523802479</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q34">
         <v>1762563.938</v>
@@ -2985,37 +2985,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.710576399866213</v>
+        <v>0.942990043970513</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.614942528735632</v>
+        <v>0.625</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.6899999999999999</v>
+        <v>0.705</v>
       </c>
       <c r="K35">
-        <v>-0.0018149068322981</v>
+        <v>-0.0049931647300068</v>
       </c>
       <c r="L35">
-        <v>-0.006996705157749</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="M35">
-        <v>0.0035458226230105</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>-0.263029975695381</v>
+        <v>-0.708250316313027</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q35">
         <v>1762563.938</v>
@@ -3056,37 +3056,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.0218744657588549</v>
+        <v>0.219016144341009</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.511494252873563</v>
+        <v>0.5</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.078</v>
+        <v>0.0775</v>
       </c>
       <c r="K36">
-        <v>0.0008696428571428</v>
+        <v>0.0003229205898311</v>
       </c>
       <c r="L36">
-        <v>0.0001596239457128</v>
+        <v>-0.0003568769874696</v>
       </c>
       <c r="M36">
-        <v>0.0016104249386594</v>
+        <v>0.0010199360999076</v>
       </c>
       <c r="N36">
-        <v>1.11492673992674</v>
+        <v>0.416671728814397</v>
       </c>
       <c r="O36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q36">
         <v>1762563.938</v>
@@ -3127,13 +3127,13 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.754483575541157</v>
+        <v>0.997455106919134</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.954022988505747</v>
+        <v>0.948863636363636</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3142,22 +3142,22 @@
         <v>5.65</v>
       </c>
       <c r="K37">
-        <v>-0.0357273657870792</v>
+        <v>-0.154907272114196</v>
       </c>
       <c r="L37">
-        <v>-0.124359015070673</v>
+        <v>-0.213303912819398</v>
       </c>
       <c r="M37">
-        <v>0.0626072956748618</v>
+        <v>-0.0578781299415566</v>
       </c>
       <c r="N37">
-        <v>-0.632342757293437</v>
+        <v>-2.74172163033975</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q37">
         <v>1762563.938</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>0.331477805550359</v>
+        <v>0.263544018498517</v>
       </c>
       <c r="G38">
-        <v>0.0222222222222222</v>
+        <v>0.0220588235294118</v>
       </c>
       <c r="H38">
-        <v>0.503703703703704</v>
+        <v>0.507352941176471</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -3213,22 +3213,22 @@
         <v>0.9</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>-0.0030930982660107</v>
       </c>
       <c r="L38">
-        <v>-0.0216946999963705</v>
+        <v>-0.0233088207271912</v>
       </c>
       <c r="M38">
-        <v>0.0162045252883762</v>
+        <v>0.0129363670715445</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>-0.343677585112304</v>
       </c>
       <c r="O38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Q38">
         <v>1762563.938</v>
@@ -3257,49 +3257,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>36</v>
       </c>
       <c r="F39">
-        <v>0.0569005363255158</v>
+        <v>0.823603364063734</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.298969072164948</v>
+        <v>0.886486486486487</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.031</v>
+        <v>9.9</v>
       </c>
       <c r="K39">
-        <v>0.0002841085874299</v>
+        <v>0.0283153404971567</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.0269999139636157</v>
       </c>
       <c r="M39">
-        <v>0.0005815037413656</v>
+        <v>0.0681437974513554</v>
       </c>
       <c r="N39">
-        <v>0.916479314290302</v>
+        <v>0.28601354037532</v>
       </c>
       <c r="O39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q39">
         <v>1762563.938</v>
@@ -3320,7 +3320,7 @@
         <v>56</v>
       </c>
       <c r="W39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3328,7 +3328,7 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -3340,37 +3340,37 @@
         <v>36</v>
       </c>
       <c r="F40">
-        <v>0.834022136526286</v>
+        <v>0.0178061621555207</v>
       </c>
       <c r="G40">
-        <v>0.0098522167487684</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0.74384236453202</v>
+        <v>0.281553398058252</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>510</v>
+        <v>0.031</v>
       </c>
       <c r="K40">
-        <v>-4.59811165845649</v>
+        <v>0.0003340192043895</v>
       </c>
       <c r="L40">
-        <v>-16.6255342620805</v>
+        <v>7.16572483749661E-05</v>
       </c>
       <c r="M40">
-        <v>3.57455634553636</v>
+        <v>0.0005968012704363</v>
       </c>
       <c r="N40">
-        <v>-0.9015905212659781</v>
+        <v>1.0774813044825</v>
       </c>
       <c r="O40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q40">
         <v>1762563.938</v>
@@ -3391,7 +3391,7 @@
         <v>56</v>
       </c>
       <c r="W40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3399,7 +3399,7 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -3411,37 +3411,37 @@
         <v>36</v>
       </c>
       <c r="F41">
-        <v>0.8354104311607909</v>
+        <v>0.7768801371388671</v>
       </c>
       <c r="G41">
-        <v>0.219251336898396</v>
+        <v>0.009389671361502301</v>
       </c>
       <c r="H41">
-        <v>0.775401069518717</v>
+        <v>0.774647887323944</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0.035393553323124</v>
+        <v>510</v>
       </c>
       <c r="K41">
-        <v>-6.32187384247606E-05</v>
+        <v>-2.66727521679598</v>
       </c>
       <c r="L41">
-        <v>-0.0008181647320959999</v>
+        <v>-14.7941391726732</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>3.7140664667503</v>
       </c>
       <c r="N41">
-        <v>-0.178616534620324</v>
+        <v>-0.522995140548232</v>
       </c>
       <c r="O41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q41">
         <v>1762563.938</v>
@@ -3462,7 +3462,7 @@
         <v>56</v>
       </c>
       <c r="W41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3470,7 +3470,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3482,37 +3482,37 @@
         <v>36</v>
       </c>
       <c r="F42">
-        <v>0.174812368041253</v>
+        <v>0.865842298745972</v>
       </c>
       <c r="G42">
-        <v>0.12972972972973</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="H42">
-        <v>0.794594594594595</v>
+        <v>0.782828282828283</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42">
-        <v>0.153</v>
+        <v>0.0343921937953721</v>
       </c>
       <c r="K42">
-        <v>0.001086457925636</v>
+        <v>-8.365467001200339E-05</v>
       </c>
       <c r="L42">
-        <v>-0.0003357325513562</v>
+        <v>-0.0007855239587753</v>
       </c>
       <c r="M42">
-        <v>0.0036376514576307</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>0.71010321936994</v>
+        <v>-0.243237376800488</v>
       </c>
       <c r="O42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q42">
         <v>1762563.938</v>
@@ -3541,7 +3541,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3550,40 +3550,40 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43">
-        <v>0.0373839181887937</v>
+        <v>0.116806462999958</v>
       </c>
       <c r="G43">
-        <v>0.0206185567010309</v>
+        <v>0.121827411167513</v>
       </c>
       <c r="H43">
-        <v>0.7989690721649489</v>
+        <v>0.802030456852792</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>0.2265</v>
+        <v>0.153</v>
       </c>
       <c r="K43">
-        <v>0.0029775815217391</v>
+        <v>0.0012614666707484</v>
       </c>
       <c r="L43">
-        <v>0.0001964859238174</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.0057294486259134</v>
+        <v>0.0033018692158035</v>
       </c>
       <c r="N43">
-        <v>1.31460552836165</v>
+        <v>0.824488020096997</v>
       </c>
       <c r="O43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P43" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Q43">
         <v>1762563.938</v>
@@ -3604,7 +3604,7 @@
         <v>56</v>
       </c>
       <c r="W43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3612,46 +3612,46 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
         <v>36</v>
       </c>
       <c r="F44">
-        <v>0.9654613766279601</v>
+        <v>0.751053344231293</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.9054726368159201</v>
+        <v>0.492227979274611</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>5.68</v>
+        <v>7.72</v>
       </c>
       <c r="K44">
-        <v>-0.07002889444022289</v>
+        <v>0.0029120638282697</v>
       </c>
       <c r="L44">
-        <v>-0.143467305110976</v>
+        <v>-0.0043519674661104</v>
       </c>
       <c r="M44">
-        <v>-0.0071640672030362</v>
+        <v>0.0105481418476149</v>
       </c>
       <c r="N44">
-        <v>-1.23290307113068</v>
+        <v>0.0377210340449454</v>
       </c>
       <c r="O44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P44" t="s">
         <v>53</v>
@@ -3674,7 +3674,288 @@
       <c r="V44" t="s">
         <v>56</v>
       </c>
-      <c r="W44" t="s">
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>0.0264419174436329</v>
+      </c>
+      <c r="G45">
+        <v>0.0194174757281553</v>
+      </c>
+      <c r="H45">
+        <v>0.800970873786408</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0.2265</v>
+      </c>
+      <c r="K45">
+        <v>0.002851288056206</v>
+      </c>
+      <c r="L45">
+        <v>0.0004328439942489</v>
+      </c>
+      <c r="M45">
+        <v>0.0053085402053471</v>
+      </c>
+      <c r="N45">
+        <v>1.25884682393205</v>
+      </c>
+      <c r="O45" t="s">
+        <v>38</v>
+      </c>
+      <c r="P45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q45">
+        <v>1762563.938</v>
+      </c>
+      <c r="R45">
+        <v>5583091.402</v>
+      </c>
+      <c r="S45" t="s">
+        <v>54</v>
+      </c>
+      <c r="T45" t="s">
+        <v>55</v>
+      </c>
+      <c r="U45" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46">
+        <v>0.897730731685447</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.591836734693878</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K46">
+        <v>-0.003331964969896</v>
+      </c>
+      <c r="L46">
+        <v>-0.0072367910119511</v>
+      </c>
+      <c r="M46">
+        <v>0.0005969934370434</v>
+      </c>
+      <c r="N46">
+        <v>-0.482893473897971</v>
+      </c>
+      <c r="O46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46">
+        <v>1762563.938</v>
+      </c>
+      <c r="R46">
+        <v>5583091.402</v>
+      </c>
+      <c r="S46" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" t="s">
+        <v>55</v>
+      </c>
+      <c r="U46" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" t="s">
+        <v>56</v>
+      </c>
+      <c r="W46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47">
+        <v>0.235400231569738</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.469387755102041</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.078</v>
+      </c>
+      <c r="K47">
+        <v>0.0002488528873503</v>
+      </c>
+      <c r="L47">
+        <v>-0.000310200037863</v>
+      </c>
+      <c r="M47">
+        <v>0.0008203674276074</v>
+      </c>
+      <c r="N47">
+        <v>0.319042163269667</v>
+      </c>
+      <c r="O47" t="s">
+        <v>38</v>
+      </c>
+      <c r="P47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q47">
+        <v>1762563.938</v>
+      </c>
+      <c r="R47">
+        <v>5583091.402</v>
+      </c>
+      <c r="S47" t="s">
+        <v>54</v>
+      </c>
+      <c r="T47" t="s">
+        <v>55</v>
+      </c>
+      <c r="U47" t="s">
+        <v>55</v>
+      </c>
+      <c r="V47" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48">
+        <v>0.999687203069757</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.9061032863849769</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>5.6</v>
+      </c>
+      <c r="K48">
+        <v>-0.130029666818804</v>
+      </c>
+      <c r="L48">
+        <v>-0.177919387251531</v>
+      </c>
+      <c r="M48">
+        <v>-0.06404456982552</v>
+      </c>
+      <c r="N48">
+        <v>-2.32195833605007</v>
+      </c>
+      <c r="O48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48">
+        <v>1762563.938</v>
+      </c>
+      <c r="R48">
+        <v>5583091.402</v>
+      </c>
+      <c r="S48" t="s">
+        <v>54</v>
+      </c>
+      <c r="T48" t="s">
+        <v>55</v>
+      </c>
+      <c r="U48" t="s">
+        <v>55</v>
+      </c>
+      <c r="V48" t="s">
+        <v>56</v>
+      </c>
+      <c r="W48" t="s">
         <v>61</v>
       </c>
     </row>
